--- a/main/CodeSystem-kdl-cs-2026.xlsx
+++ b/main/CodeSystem-kdl-cs-2026.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025.0.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>
